--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Cxcl13</t>
+  </si>
+  <si>
+    <t>Cxcr5</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cxcl13</t>
-  </si>
-  <si>
-    <t>Cxcr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,40 +540,40 @@
         <v>12.029543</v>
       </c>
       <c r="I2">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6511963333333334</v>
+        <v>0.1786973333333333</v>
       </c>
       <c r="N2">
-        <v>1.953589</v>
+        <v>0.536092</v>
       </c>
       <c r="O2">
-        <v>0.3942798821674536</v>
+        <v>0.1393273670217259</v>
       </c>
       <c r="P2">
-        <v>0.3942798821674536</v>
+        <v>0.1393273670217259</v>
       </c>
       <c r="Q2">
-        <v>2.611198097758556</v>
+        <v>0.7165490851062223</v>
       </c>
       <c r="R2">
-        <v>23.500782879827</v>
+        <v>6.448941765956</v>
       </c>
       <c r="S2">
-        <v>0.3823430166206775</v>
+        <v>0.1393273670217259</v>
       </c>
       <c r="T2">
-        <v>0.3823430166206775</v>
+        <v>0.1393273670217259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +602,10 @@
         <v>12.029543</v>
       </c>
       <c r="I3">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>2.019448</v>
       </c>
       <c r="O3">
-        <v>0.4075717663660575</v>
+        <v>0.5248434460452502</v>
       </c>
       <c r="P3">
-        <v>0.4075717663660575</v>
+        <v>0.5248434460452502</v>
       </c>
       <c r="Q3">
         <v>2.699226283584889</v>
@@ -632,10 +632,10 @@
         <v>24.293036552264</v>
       </c>
       <c r="S3">
-        <v>0.3952324876054247</v>
+        <v>0.5248434460452502</v>
       </c>
       <c r="T3">
-        <v>0.3952324876054247</v>
+        <v>0.5248434460452502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,226 +664,40 @@
         <v>12.029543</v>
       </c>
       <c r="I4">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3272636666666667</v>
+        <v>0.430725</v>
       </c>
       <c r="N4">
-        <v>0.9817910000000001</v>
+        <v>1.292175</v>
       </c>
       <c r="O4">
-        <v>0.1981483514664888</v>
+        <v>0.3358291869330239</v>
       </c>
       <c r="P4">
-        <v>0.1981483514664889</v>
+        <v>0.3358291869330239</v>
       </c>
       <c r="Q4">
-        <v>1.312277450168111</v>
+        <v>1.727141636225</v>
       </c>
       <c r="R4">
-        <v>11.810497051513</v>
+        <v>15.544274726025</v>
       </c>
       <c r="S4">
-        <v>0.1921493889610515</v>
+        <v>0.3358291869330239</v>
       </c>
       <c r="T4">
-        <v>0.1921493889610515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1251886666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.375566</v>
-      </c>
-      <c r="I5">
-        <v>0.03027510681284623</v>
-      </c>
-      <c r="J5">
-        <v>0.03027510681284622</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.6511963333333334</v>
-      </c>
-      <c r="N5">
-        <v>1.953589</v>
-      </c>
-      <c r="O5">
-        <v>0.3942798821674536</v>
-      </c>
-      <c r="P5">
-        <v>0.3942798821674536</v>
-      </c>
-      <c r="Q5">
-        <v>0.08152240070822223</v>
-      </c>
-      <c r="R5">
-        <v>0.7337016063740001</v>
-      </c>
-      <c r="S5">
-        <v>0.01193686554677608</v>
-      </c>
-      <c r="T5">
-        <v>0.01193686554677608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1251886666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.375566</v>
-      </c>
-      <c r="I6">
-        <v>0.03027510681284623</v>
-      </c>
-      <c r="J6">
-        <v>0.03027510681284622</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.6731493333333334</v>
-      </c>
-      <c r="N6">
-        <v>2.019448</v>
-      </c>
-      <c r="O6">
-        <v>0.4075717663660575</v>
-      </c>
-      <c r="P6">
-        <v>0.4075717663660575</v>
-      </c>
-      <c r="Q6">
-        <v>0.08427066750755556</v>
-      </c>
-      <c r="R6">
-        <v>0.7584360075680001</v>
-      </c>
-      <c r="S6">
-        <v>0.0123392787606328</v>
-      </c>
-      <c r="T6">
-        <v>0.0123392787606328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1251886666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.375566</v>
-      </c>
-      <c r="I7">
-        <v>0.03027510681284623</v>
-      </c>
-      <c r="J7">
-        <v>0.03027510681284622</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.3272636666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.9817910000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.1981483514664888</v>
-      </c>
-      <c r="P7">
-        <v>0.1981483514664889</v>
-      </c>
-      <c r="Q7">
-        <v>0.04096970207844445</v>
-      </c>
-      <c r="R7">
-        <v>0.3687273187060001</v>
-      </c>
-      <c r="S7">
-        <v>0.005998962505437345</v>
-      </c>
-      <c r="T7">
-        <v>0.005998962505437346</v>
+        <v>0.3358291869330239</v>
       </c>
     </row>
   </sheetData>
